--- a/biology/Neurosciences/Terminaison_nerveuse_libre/Terminaison_nerveuse_libre.xlsx
+++ b/biology/Neurosciences/Terminaison_nerveuse_libre/Terminaison_nerveuse_libre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme terminaison nerveuse libre désigne les neurites des neurones sensitifs (tact thermoalgique) qui viennent innerver leur cible comme l'épiderme et qui ne se finissent pas par une structure histologique particulière (comme les terminaisons encapsulées).
 Les neurones sensitif, résidant dans les ganglions de la racine dorsale, en situation paravertébrale, qui innervent la peau peuvent former à leur extrémité des structures complexes en s'entourant de cellules de Schwann au niveau de l'hypoderme ou du derme. Ce sont les corpuscules de Pacini dans le derme, de Ruffini et de Meissner.
